--- a/SourceDataTables/Fig3a.xlsx
+++ b/SourceDataTables/Fig3a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -49,14 +49,30 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -74,10 +90,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/Fig3a.xlsx
+++ b/SourceDataTables/Fig3a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -57,11 +57,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -73,6 +75,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,10 +94,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/Fig3a.xlsx
+++ b/SourceDataTables/Fig3a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Cortical_ROI</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -49,34 +49,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,10 +74,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -106,7 +86,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.064886504116894991</v>
+        <v>-0.063745853010799436</v>
       </c>
     </row>
     <row r="3">
@@ -114,7 +94,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-0.1937781020535542</v>
+        <v>-0.19286554580897597</v>
       </c>
     </row>
     <row r="4">
@@ -122,7 +102,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.17181713213293645</v>
+        <v>0.17319921595921856</v>
       </c>
     </row>
     <row r="5">
@@ -130,7 +110,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.87759382135253394</v>
+        <v>0.87858033163980442</v>
       </c>
     </row>
     <row r="6">
@@ -138,7 +118,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.2007530722910171</v>
+        <v>1.2004853732444778</v>
       </c>
     </row>
     <row r="7">
@@ -146,7 +126,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-0.24445646690464296</v>
+        <v>-0.24365411094172904</v>
       </c>
     </row>
     <row r="8">
@@ -154,7 +134,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-0.10024405699534733</v>
+        <v>-0.099252317708672086</v>
       </c>
     </row>
     <row r="9">
@@ -162,7 +142,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.16558351737354562</v>
+        <v>0.16695050854388935</v>
       </c>
     </row>
     <row r="10">
@@ -170,7 +150,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.069959514293634645</v>
+        <v>0.071264646131254175</v>
       </c>
     </row>
     <row r="11">
@@ -178,7 +158,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.3623767571702966</v>
+        <v>0.36374545118323398</v>
       </c>
     </row>
     <row r="12">
@@ -186,7 +166,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.65892407367830452</v>
+        <v>0.65944517788254731</v>
       </c>
     </row>
     <row r="13">
@@ -194,7 +174,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.31527279602669661</v>
+        <v>0.31664226582669158</v>
       </c>
     </row>
     <row r="14">
@@ -202,7 +182,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-0.2369233430828839</v>
+        <v>-0.23604793224810083</v>
       </c>
     </row>
     <row r="15">
@@ -210,7 +190,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-0.25582566887295621</v>
+        <v>-0.25504821651002407</v>
       </c>
     </row>
     <row r="16">
@@ -218,7 +198,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-0.11105510618940731</v>
+        <v>-0.10999932119640986</v>
       </c>
     </row>
     <row r="17">
@@ -226,7 +206,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.37385623767031245</v>
+        <v>0.37519645942576041</v>
       </c>
     </row>
     <row r="18">
@@ -234,7 +214,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.068772149286058876</v>
+        <v>0.069983675450827204</v>
       </c>
     </row>
     <row r="19">
@@ -242,7 +222,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.050892902447129615</v>
+        <v>0.052144444310580809</v>
       </c>
     </row>
     <row r="20">
@@ -250,7 +230,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.42418681405652986</v>
+        <v>0.42554967288386653</v>
       </c>
     </row>
     <row r="21">
@@ -258,7 +238,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.26461380428423015</v>
+        <v>0.26490498368293225</v>
       </c>
     </row>
     <row r="22">
@@ -266,7 +246,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.20237835733991083</v>
+        <v>0.20364991199353352</v>
       </c>
     </row>
     <row r="23">
@@ -274,7 +254,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-0.2280326530199967</v>
+        <v>-0.22712043250744662</v>
       </c>
     </row>
     <row r="24">
@@ -282,7 +262,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-0.11771285516256211</v>
+        <v>-0.11667621441990894</v>
       </c>
     </row>
     <row r="25">
@@ -290,7 +270,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-0.32943920272573912</v>
+        <v>-0.32842008509295334</v>
       </c>
     </row>
     <row r="26">
@@ -298,7 +278,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.11917347301883294</v>
+        <v>0.12042525776797776</v>
       </c>
     </row>
     <row r="27">
@@ -306,7 +286,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.002430354581744894</v>
+        <v>0.003582129627176479</v>
       </c>
     </row>
     <row r="28">
@@ -314,7 +294,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.18446836408236783</v>
+        <v>0.18570933676769322</v>
       </c>
     </row>
     <row r="29">
@@ -322,7 +302,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.67889653904137348</v>
+        <v>0.6801638307878981</v>
       </c>
     </row>
     <row r="30">
@@ -330,7 +310,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.099528040005234214</v>
+        <v>0.10072520893555087</v>
       </c>
     </row>
     <row r="31">
@@ -338,7 +318,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.45010638914334977</v>
+        <v>0.45142776895230974</v>
       </c>
     </row>
     <row r="32">
@@ -346,7 +326,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.068984551528557869</v>
+        <v>0.070192470260674211</v>
       </c>
     </row>
     <row r="33">
@@ -354,7 +334,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.2183975161805386</v>
+        <v>0.21962907385090943</v>
       </c>
     </row>
     <row r="34">
@@ -362,7 +342,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.14911499821286031</v>
+        <v>0.15028868466323483</v>
       </c>
     </row>
     <row r="35">
@@ -370,7 +350,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.41718931508954288</v>
+        <v>0.41853639364007555</v>
       </c>
     </row>
     <row r="36">
@@ -378,7 +358,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-0.10715432739554447</v>
+        <v>-0.10606757460706825</v>
       </c>
     </row>
     <row r="37">
@@ -386,7 +366,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.10637301266458532</v>
+        <v>0.1075935282234089</v>
       </c>
     </row>
     <row r="38">
@@ -394,7 +374,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.74584851309042988</v>
+        <v>0.74701540686844159</v>
       </c>
     </row>
     <row r="39">
@@ -402,7 +382,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-1.780233541528111</v>
+        <v>-1.7791449269666129</v>
       </c>
     </row>
     <row r="40">
@@ -410,7 +390,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.18859968476089595</v>
+        <v>0.18981144445091361</v>
       </c>
     </row>
     <row r="41">
@@ -418,7 +398,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-1.9605577835455616</v>
+        <v>-1.9605897960025236</v>
       </c>
     </row>
     <row r="42">
@@ -426,7 +406,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.16721325560687375</v>
+        <v>0.16838042685164678</v>
       </c>
     </row>
     <row r="43">
@@ -434,7 +414,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.37021324132371691</v>
+        <v>0.37148726420548051</v>
       </c>
     </row>
     <row r="44">
@@ -442,7 +422,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.32851487145758496</v>
+        <v>0.32982773686259037</v>
       </c>
     </row>
     <row r="45">
@@ -450,7 +430,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.16323351716407578</v>
+        <v>0.16444823404584422</v>
       </c>
     </row>
     <row r="46">
@@ -458,7 +438,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.015706650661967563</v>
+        <v>0.016904668472400863</v>
       </c>
     </row>
     <row r="47">
@@ -466,7 +446,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-0.27635702697951825</v>
+        <v>-0.27523661506164521</v>
       </c>
     </row>
     <row r="48">
@@ -474,7 +454,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.30703088715050358</v>
+        <v>0.30825547797694058</v>
       </c>
     </row>
     <row r="49">
@@ -482,7 +462,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-1.3664766911340276</v>
+        <v>-1.3652461180408257</v>
       </c>
     </row>
     <row r="50">
@@ -490,7 +470,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.1962403680063852</v>
+        <v>0.19742353103516835</v>
       </c>
     </row>
     <row r="51">
@@ -498,7 +478,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.51752372315252149</v>
+        <v>0.51860175129837738</v>
       </c>
     </row>
     <row r="52">
@@ -506,7 +486,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-1.8409103468040233</v>
+        <v>-1.8410003587739874</v>
       </c>
     </row>
     <row r="53">
@@ -514,7 +494,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.35297469120594549</v>
+        <v>0.35409556370229361</v>
       </c>
     </row>
     <row r="54">
@@ -522,7 +502,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.1852398779791011</v>
+        <v>0.18640339885892404</v>
       </c>
     </row>
     <row r="55">
@@ -530,7 +510,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.41051529807874881</v>
+        <v>0.41148319273065365</v>
       </c>
     </row>
     <row r="56">
@@ -538,7 +518,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.23749693145638243</v>
+        <v>0.23866911193687232</v>
       </c>
     </row>
     <row r="57">
@@ -546,7 +526,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-2.2487832601470461</v>
+        <v>-2.2483433837065476</v>
       </c>
     </row>
     <row r="58">
@@ -554,7 +534,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.45212853402984304</v>
+        <v>0.45331230714224252</v>
       </c>
     </row>
     <row r="59">
@@ -562,7 +542,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.23629915632746634</v>
+        <v>0.23749296228029237</v>
       </c>
     </row>
     <row r="60">
@@ -570,7 +550,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.50758884681383776</v>
+        <v>0.50874612987812651</v>
       </c>
     </row>
     <row r="61">
@@ -578,7 +558,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.49430511519618336</v>
+        <v>0.49540611321459882</v>
       </c>
     </row>
     <row r="62">
@@ -586,7 +566,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.21318089982262278</v>
+        <v>0.21432500056272039</v>
       </c>
     </row>
     <row r="63">
@@ -594,7 +574,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-2.1036805894822708</v>
+        <v>-2.1031894497912544</v>
       </c>
     </row>
     <row r="64">
@@ -602,7 +582,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-2.2287378956849637</v>
+        <v>-2.2286618043412227</v>
       </c>
     </row>
     <row r="65">
@@ -610,7 +590,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.22518178791004373</v>
+        <v>0.22625803135494427</v>
       </c>
     </row>
     <row r="66">
@@ -618,7 +598,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.42910765538114148</v>
+        <v>0.43040701895579386</v>
       </c>
     </row>
     <row r="67">
@@ -626,7 +606,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1.4142342239106367</v>
+        <v>-1.4147277058592564</v>
       </c>
     </row>
     <row r="68">
@@ -634,7 +614,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.25728640130655606</v>
+        <v>0.25839362346261907</v>
       </c>
     </row>
     <row r="69">
@@ -642,7 +622,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-2.0575792719958645</v>
+        <v>-2.0575421488902976</v>
       </c>
     </row>
     <row r="70">
@@ -650,7 +630,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.31357746132483494</v>
+        <v>0.31473598457352403</v>
       </c>
     </row>
     <row r="71">
@@ -658,7 +638,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.41968975052256197</v>
+        <v>0.42090554023860127</v>
       </c>
     </row>
     <row r="72">
@@ -666,7 +646,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-2.2009755047631256</v>
+        <v>-2.2002138395028612</v>
       </c>
     </row>
     <row r="73">
@@ -674,7 +654,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.234830209086167</v>
+        <v>0.23595456331839987</v>
       </c>
     </row>
     <row r="74">
@@ -682,7 +662,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-2.2785824366333767</v>
+        <v>-2.2785753724565581</v>
       </c>
     </row>
     <row r="75">
@@ -690,7 +670,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.5846185436954342</v>
+        <v>0.58558799587934063</v>
       </c>
     </row>
     <row r="76">
@@ -698,7 +678,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.25026110252918232</v>
+        <v>0.25141828104704228</v>
       </c>
     </row>
     <row r="77">
@@ -706,7 +686,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.6966338611484808</v>
+        <v>0.69728215775174307</v>
       </c>
     </row>
     <row r="78">
@@ -714,7 +694,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.56946380495489768</v>
+        <v>0.57050998339517389</v>
       </c>
     </row>
     <row r="79">
@@ -722,7 +702,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.42787252307634555</v>
+        <v>0.42897861812899507</v>
       </c>
     </row>
     <row r="80">
@@ -730,7 +710,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.53901952491642569</v>
+        <v>0.54008982286800056</v>
       </c>
     </row>
     <row r="81">
@@ -738,7 +718,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.25118387268168102</v>
+        <v>0.2523280167178234</v>
       </c>
     </row>
     <row r="82">
@@ -746,7 +726,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.32006642353591436</v>
+        <v>0.32115360605572923</v>
       </c>
     </row>
     <row r="83">
@@ -754,7 +734,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-2.3335555929035761</v>
+        <v>-2.3334798355897401</v>
       </c>
     </row>
     <row r="84">
@@ -762,7 +742,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-2.0382691471366967</v>
+        <v>-2.0382186779356117</v>
       </c>
     </row>
     <row r="85">
@@ -770,7 +750,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-2.3079957031858211</v>
+        <v>-2.3078810886149825</v>
       </c>
     </row>
     <row r="86">
@@ -778,7 +758,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-0.50026456586134971</v>
+        <v>-0.50156592873449901</v>
       </c>
     </row>
     <row r="87">
@@ -786,7 +766,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-2.2689779674018062</v>
+        <v>-2.2689790722172485</v>
       </c>
     </row>
     <row r="88">
@@ -794,7 +774,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.317332079309813</v>
+        <v>0.31846451583059576</v>
       </c>
     </row>
     <row r="89">
@@ -802,7 +782,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.67519431346670022</v>
+        <v>0.67620356905516354</v>
       </c>
     </row>
     <row r="90">
@@ -810,7 +790,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.43688752784691953</v>
+        <v>0.4381497299225231</v>
       </c>
     </row>
     <row r="91">
@@ -818,7 +798,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-1.9764060679647817</v>
+        <v>-1.9765876020084874</v>
       </c>
     </row>
     <row r="92">
@@ -826,7 +806,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.34677202215860164</v>
+        <v>0.34785323268551999</v>
       </c>
     </row>
     <row r="93">
@@ -834,7 +814,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.28768739963616424</v>
+        <v>0.28881140737407646</v>
       </c>
     </row>
     <row r="94">
@@ -842,7 +822,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.62065751289678683</v>
+        <v>0.6215284768899435</v>
       </c>
     </row>
     <row r="95">
@@ -850,7 +830,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.86860611060005721</v>
+        <v>0.86903672002730437</v>
       </c>
     </row>
     <row r="96">
@@ -858,7 +838,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.46885600941354605</v>
+        <v>0.46995270244553988</v>
       </c>
     </row>
     <row r="97">
@@ -866,7 +846,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1.2316711757731051</v>
+        <v>1.2305439456666623</v>
       </c>
     </row>
     <row r="98">
@@ -874,7 +854,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-2.3476230534522036</v>
+        <v>-2.3476077314712702</v>
       </c>
     </row>
     <row r="99">
@@ -882,7 +862,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.85738404821854985</v>
+        <v>0.85797719315323873</v>
       </c>
     </row>
     <row r="100">
@@ -890,7 +870,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.36156337160162866</v>
+        <v>0.3627007805016807</v>
       </c>
     </row>
     <row r="101">
@@ -898,7 +878,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-2.1620405400309322</v>
+        <v>-2.1620853837733551</v>
       </c>
     </row>
     <row r="102">
@@ -906,7 +886,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-2.2144415709537477</v>
+        <v>-2.2145252771152379</v>
       </c>
     </row>
     <row r="103">
@@ -914,7 +894,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.69439711570883655</v>
+        <v>0.69529187877499765</v>
       </c>
     </row>
     <row r="104">
@@ -922,7 +902,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1.1489179863416354</v>
+        <v>1.14774841096446</v>
       </c>
     </row>
     <row r="105">
@@ -930,7 +910,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-2.0933766758645653</v>
+        <v>-2.0935113607251341</v>
       </c>
     </row>
     <row r="106">
@@ -938,7 +918,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-2.2299997089011208</v>
+        <v>-2.2300557509897807</v>
       </c>
     </row>
     <row r="107">
@@ -946,7 +926,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.80564776385249226</v>
+        <v>0.80503219984978724</v>
       </c>
     </row>
     <row r="108">
@@ -954,7 +934,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.69833106130719813</v>
+        <v>0.69948023685014837</v>
       </c>
     </row>
     <row r="109">
@@ -962,7 +942,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.36504800371608365</v>
+        <v>0.36613292391084473</v>
       </c>
     </row>
     <row r="110">
@@ -970,7 +950,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.31395751789525417</v>
+        <v>0.31509773778227174</v>
       </c>
     </row>
     <row r="111">
@@ -978,7 +958,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.65327867548532759</v>
+        <v>0.65422381129209406</v>
       </c>
     </row>
     <row r="112">
@@ -986,7 +966,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.73008384500576173</v>
+        <v>0.73068806271076892</v>
       </c>
     </row>
     <row r="113">
@@ -994,7 +974,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-0.75045292456799806</v>
+        <v>-0.75148873065687039</v>
       </c>
     </row>
     <row r="114">
@@ -1002,7 +982,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.4785136790111344</v>
+        <v>0.47956376874617901</v>
       </c>
     </row>
     <row r="115">
@@ -1010,7 +990,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.46141098898775296</v>
+        <v>0.46265106175724086</v>
       </c>
     </row>
     <row r="116">
@@ -1018,7 +998,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-1.6336040793332751</v>
+        <v>-1.634069589635978</v>
       </c>
     </row>
     <row r="117">
@@ -1026,7 +1006,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-2.2420096973163957</v>
+        <v>-2.2420948563773142</v>
       </c>
     </row>
     <row r="118">
@@ -1034,7 +1014,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.43891221158222582</v>
+        <v>0.43999131068073905</v>
       </c>
     </row>
     <row r="119">
@@ -1042,7 +1022,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-1.8321232557214358</v>
+        <v>-1.8324335537496728</v>
       </c>
     </row>
     <row r="120">
@@ -1050,7 +1030,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.53129572044274143</v>
+        <v>0.53235259968340265</v>
       </c>
     </row>
     <row r="121">
@@ -1058,7 +1038,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-2.2812574927461564</v>
+        <v>-2.2813218855764177</v>
       </c>
     </row>
     <row r="122">
@@ -1066,7 +1046,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>-0.8707964203914853</v>
+        <v>-0.87179441835415783</v>
       </c>
     </row>
     <row r="123">
@@ -1074,7 +1054,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.80666400103250879</v>
+        <v>0.80672040912423204</v>
       </c>
     </row>
     <row r="124">
@@ -1082,7 +1062,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.39216820084205428</v>
+        <v>0.39325451231939729</v>
       </c>
     </row>
     <row r="125">
@@ -1090,7 +1070,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.31848036920923489</v>
+        <v>0.3167820274572295</v>
       </c>
     </row>
     <row r="126">
@@ -1098,7 +1078,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>-2.0276555241353065</v>
+        <v>-2.0278188072214842</v>
       </c>
     </row>
     <row r="127">
@@ -1106,7 +1086,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.61253304752601401</v>
+        <v>0.61343252731136344</v>
       </c>
     </row>
     <row r="128">
@@ -1114,7 +1094,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.78445699699715521</v>
+        <v>0.78515097526693356</v>
       </c>
     </row>
     <row r="129">
@@ -1122,7 +1102,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.72356495353511507</v>
+        <v>0.72461018896884932</v>
       </c>
     </row>
     <row r="130">
@@ -1130,7 +1110,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1.0056592303793641</v>
+        <v>1.0050461704938003</v>
       </c>
     </row>
     <row r="131">
@@ -1138,7 +1118,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.18869975826819804</v>
+        <v>0.18742053251002078</v>
       </c>
     </row>
     <row r="132">
@@ -1146,7 +1126,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>-1.8783586397667631</v>
+        <v>-1.8786160051557985</v>
       </c>
     </row>
     <row r="133">
@@ -1154,7 +1134,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.54328314871833805</v>
+        <v>0.54426491933647647</v>
       </c>
     </row>
     <row r="134">
@@ -1162,7 +1142,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>-2.0598120626057321</v>
+        <v>-2.0599932203674509</v>
       </c>
     </row>
     <row r="135">
@@ -1170,7 +1150,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.7352133562037424</v>
+        <v>0.73572177497386149</v>
       </c>
     </row>
     <row r="136">
@@ -1178,7 +1158,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.58154428586901052</v>
+        <v>0.58253760445788105</v>
       </c>
     </row>
     <row r="137">
@@ -1186,7 +1166,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.7650979958878088</v>
+        <v>0.76489704682415471</v>
       </c>
     </row>
     <row r="138">
@@ -1194,7 +1174,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.70549549497412856</v>
+        <v>0.70502332863574502</v>
       </c>
     </row>
     <row r="139">
@@ -1202,7 +1182,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.63115388080650514</v>
+        <v>0.63227087506826707</v>
       </c>
     </row>
     <row r="140">
@@ -1210,7 +1190,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.76305247808236565</v>
+        <v>0.76371723660175883</v>
       </c>
     </row>
     <row r="141">
@@ -1218,7 +1198,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>-0.78096617181758765</v>
+        <v>-0.78200564630037273</v>
       </c>
     </row>
     <row r="142">
@@ -1226,7 +1206,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-1.428440305822831</v>
+        <v>-1.4288380661592612</v>
       </c>
     </row>
     <row r="143">
@@ -1234,7 +1214,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>-1.9011763531480599</v>
+        <v>-1.9014865302241464</v>
       </c>
     </row>
     <row r="144">
@@ -1242,7 +1222,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>-1.7120170833061787</v>
+        <v>-1.7124168781942926</v>
       </c>
     </row>
     <row r="145">
@@ -1250,7 +1230,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>-2.0879019025325358</v>
+        <v>-2.0880839873012196</v>
       </c>
     </row>
     <row r="146">
@@ -1258,7 +1238,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.51201083131401137</v>
+        <v>0.5130135813827752</v>
       </c>
     </row>
     <row r="147">
@@ -1266,7 +1246,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.641064163259085</v>
+        <v>0.64191019798399396</v>
       </c>
     </row>
     <row r="148">
@@ -1274,7 +1254,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.73903338536677188</v>
+        <v>0.73981604249371014</v>
       </c>
     </row>
     <row r="149">
@@ -1282,7 +1262,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.78272022833559862</v>
+        <v>0.78268972815302673</v>
       </c>
     </row>
     <row r="150">
@@ -1290,7 +1270,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.83553190080719919</v>
+        <v>0.83502481068191414</v>
       </c>
     </row>
     <row r="151">
@@ -1298,7 +1278,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.60110129942972867</v>
+        <v>0.60201705407810513</v>
       </c>
     </row>
     <row r="152">
@@ -1306,7 +1286,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>-2.0267387294166346</v>
+        <v>-2.0269450814789698</v>
       </c>
     </row>
     <row r="153">
@@ -1314,7 +1294,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>-0.43437797944961315</v>
+        <v>-0.43557307459281153</v>
       </c>
     </row>
     <row r="154">
@@ -1322,7 +1302,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.80003382161480996</v>
+        <v>0.80033105627955892</v>
       </c>
     </row>
     <row r="155">
@@ -1330,7 +1310,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.21028660699483789</v>
+        <v>0.20870540152886236</v>
       </c>
     </row>
     <row r="156">
@@ -1338,7 +1318,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>-1.6428528687225836</v>
+        <v>-1.6433349325254376</v>
       </c>
     </row>
     <row r="157">
@@ -1346,7 +1326,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.70986030138949052</v>
+        <v>0.71053739652181247</v>
       </c>
     </row>
     <row r="158">
@@ -1354,7 +1334,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.92762009371600973</v>
+        <v>0.92757435200433824</v>
       </c>
     </row>
     <row r="159">
@@ -1362,7 +1342,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>-1.6693061765796853</v>
+        <v>-1.6697693463510592</v>
       </c>
     </row>
     <row r="160">
@@ -1370,7 +1350,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.65779304344517953</v>
+        <v>0.65853456414662326</v>
       </c>
     </row>
     <row r="161">
@@ -1378,7 +1358,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.77985753937918867</v>
+        <v>0.780363708407114</v>
       </c>
     </row>
     <row r="162">
@@ -1386,7 +1366,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>-1.0939597153174705</v>
+        <v>-1.0948236947198495</v>
       </c>
     </row>
     <row r="163">
@@ -1394,7 +1374,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.78589736432682256</v>
+        <v>0.78654313570270185</v>
       </c>
     </row>
     <row r="164">
@@ -1402,7 +1382,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>0.84572565738865668</v>
+        <v>0.84420539843291598</v>
       </c>
     </row>
     <row r="165">
@@ -1410,7 +1390,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>-1.8308393120024979</v>
+        <v>-1.8311784204815114</v>
       </c>
     </row>
     <row r="166">
@@ -1418,7 +1398,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>-1.2597474802903186</v>
+        <v>-1.2604664532808008</v>
       </c>
     </row>
     <row r="167">
@@ -1426,7 +1406,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.7301864064009036</v>
+        <v>0.72891457998359499</v>
       </c>
     </row>
     <row r="168">
@@ -1434,7 +1414,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.86825367346786186</v>
+        <v>0.86857872018885429</v>
       </c>
     </row>
     <row r="169">
@@ -1442,7 +1422,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>0.14148113240260188</v>
+        <v>0.14009751511280244</v>
       </c>
     </row>
     <row r="170">
@@ -1450,7 +1430,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.89908488213561177</v>
+        <v>0.89836779762636421</v>
       </c>
     </row>
     <row r="171">
@@ -1458,7 +1438,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>-1.7160433899859666</v>
+        <v>-1.7164778043406246</v>
       </c>
     </row>
     <row r="172">
@@ -1466,7 +1446,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.84467757257034493</v>
+        <v>0.8446892544664345</v>
       </c>
     </row>
     <row r="173">
@@ -1474,7 +1454,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>0.68780844619623716</v>
+        <v>0.68846883753508048</v>
       </c>
     </row>
     <row r="174">
@@ -1482,7 +1462,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>0.72665198607736647</v>
+        <v>0.72718674755401458</v>
       </c>
     </row>
     <row r="175">
@@ -1490,7 +1470,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>-1.7291349449930038</v>
+        <v>-1.7295290113904009</v>
       </c>
     </row>
     <row r="176">
@@ -1498,7 +1478,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.8439632967711731</v>
+        <v>0.84367177761636036</v>
       </c>
     </row>
     <row r="177">
@@ -1506,7 +1486,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>-1.5047902651072076</v>
+        <v>-1.5053399921686199</v>
       </c>
     </row>
     <row r="178">
@@ -1514,7 +1494,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>1.2890045482900416</v>
+        <v>1.2872351028194982</v>
       </c>
     </row>
     <row r="179">
@@ -1522,7 +1502,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>-0.13533816750504621</v>
+        <v>-0.13682204267819204</v>
       </c>
     </row>
     <row r="180">
@@ -1530,7 +1510,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>0.92808466566975667</v>
+        <v>0.92788747736536836</v>
       </c>
     </row>
     <row r="181">
@@ -1538,7 +1518,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>0.96340804464829666</v>
+        <v>0.96255105279095843</v>
       </c>
     </row>
     <row r="182">
@@ -1546,7 +1526,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0.74946326955466547</v>
+        <v>0.74737236653198935</v>
       </c>
     </row>
     <row r="183">
@@ -1554,7 +1534,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>0.80320095996577079</v>
+        <v>0.80357239297615157</v>
       </c>
     </row>
     <row r="184">
@@ -1562,7 +1542,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>1.0278467701154048</v>
+        <v>1.0278447272146878</v>
       </c>
     </row>
     <row r="185">
@@ -1570,7 +1550,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>-1.3109270834892857</v>
+        <v>-1.3116504460294802</v>
       </c>
     </row>
     <row r="186">
@@ -1578,7 +1558,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>0.89692263070440836</v>
+        <v>0.8969902018654039</v>
       </c>
     </row>
     <row r="187">
@@ -1586,7 +1566,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>0.84580731382177698</v>
+        <v>0.84590866288637512</v>
       </c>
     </row>
     <row r="188">
@@ -1594,7 +1574,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.83529350464750518</v>
+        <v>0.83455598438299328</v>
       </c>
     </row>
     <row r="189">
@@ -1602,7 +1582,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>-1.4299842381489001</v>
+        <v>-1.4306663899452321</v>
       </c>
     </row>
     <row r="190">
@@ -1610,7 +1590,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>-0.91581823573901389</v>
+        <v>-0.91676288466515188</v>
       </c>
     </row>
     <row r="191">
@@ -1618,7 +1598,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0.91921288856061978</v>
+        <v>0.91904241658250818</v>
       </c>
     </row>
     <row r="192">
@@ -1626,7 +1606,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-1.5190049865092377</v>
+        <v>-1.5195209014816562</v>
       </c>
     </row>
     <row r="193">
@@ -1634,7 +1614,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>-0.19522015881150559</v>
+        <v>-0.19631706450262143</v>
       </c>
     </row>
     <row r="194">
@@ -1642,7 +1622,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>1.008278218072558</v>
+        <v>1.0065571316011359</v>
       </c>
     </row>
     <row r="195">
@@ -1650,7 +1630,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.54359462971407657</v>
+        <v>0.54200364417389257</v>
       </c>
     </row>
     <row r="196">
@@ -1658,7 +1638,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0.88582589456026262</v>
+        <v>0.88404119191280839</v>
       </c>
     </row>
     <row r="197">
@@ -1666,7 +1646,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0.8231066103408381</v>
+        <v>0.82254737434115155</v>
       </c>
     </row>
     <row r="198">
@@ -1674,7 +1654,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>-1.4772391221490266</v>
+        <v>-1.4778201952755714</v>
       </c>
     </row>
     <row r="199">
@@ -1682,7 +1662,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>0.8982380137891246</v>
+        <v>0.89808660020971831</v>
       </c>
     </row>
     <row r="200">
@@ -1690,7 +1670,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>0.89940818765936659</v>
+        <v>0.89834767220247325</v>
       </c>
     </row>
     <row r="201">
@@ -1698,7 +1678,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>0.85769381798775024</v>
+        <v>0.85599091247682546</v>
       </c>
     </row>
     <row r="202">
@@ -1706,7 +1686,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.92947184075528122</v>
+        <v>0.92929844147985907</v>
       </c>
     </row>
     <row r="203">
@@ -1714,7 +1694,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>-1.0950142025182563</v>
+        <v>-1.0958382433578462</v>
       </c>
     </row>
     <row r="204">
@@ -1722,7 +1702,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.26434490751089523</v>
+        <v>0.26269920073981767</v>
       </c>
     </row>
     <row r="205">
@@ -1730,7 +1710,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>-1.2456197365291515</v>
+        <v>-1.2464209002284865</v>
       </c>
     </row>
     <row r="206">
@@ -1738,7 +1718,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>0.89136544505294968</v>
+        <v>0.88997814840301426</v>
       </c>
     </row>
     <row r="207">
@@ -1746,7 +1726,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.92672411687908385</v>
+        <v>0.92608957975458817</v>
       </c>
     </row>
     <row r="208">
@@ -1754,7 +1734,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0.89937235073360189</v>
+        <v>0.89902568386075155</v>
       </c>
     </row>
     <row r="209">
@@ -1762,7 +1742,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>0.6947070052940223</v>
+        <v>0.69276625052100882</v>
       </c>
     </row>
     <row r="210">
@@ -1770,7 +1750,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.93179450732807501</v>
+        <v>0.93086961268069235</v>
       </c>
     </row>
     <row r="211">
@@ -1778,7 +1758,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>-0.34406456429140414</v>
+        <v>-0.34535204385274615</v>
       </c>
     </row>
     <row r="212">
@@ -1786,7 +1766,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>0.92446226590458425</v>
+        <v>0.92278738251394732</v>
       </c>
     </row>
     <row r="213">
@@ -1794,7 +1774,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>-0.96585884485097628</v>
+        <v>-0.96676797259767044</v>
       </c>
     </row>
     <row r="214">
@@ -1802,7 +1782,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0.87065758325500531</v>
+        <v>0.86999296562749506</v>
       </c>
     </row>
     <row r="215">
@@ -1810,7 +1790,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>-1.2140352275891098</v>
+        <v>-1.2147699167139485</v>
       </c>
     </row>
     <row r="216">
@@ -1818,7 +1798,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>-0.084858032136011868</v>
+        <v>-0.086199086998863278</v>
       </c>
     </row>
     <row r="217">
@@ -1826,7 +1806,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>-1.1935673053419327</v>
+        <v>-1.1943138273084641</v>
       </c>
     </row>
     <row r="218">
@@ -1834,7 +1814,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.85719339383775917</v>
+        <v>0.85573611556138773</v>
       </c>
     </row>
     <row r="219">
@@ -1842,7 +1822,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>0.64734011835168137</v>
+        <v>0.64563372898208515</v>
       </c>
     </row>
     <row r="220">
@@ -1850,7 +1830,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0.90464878736146936</v>
+        <v>0.90267737620539534</v>
       </c>
     </row>
     <row r="221">
@@ -1858,7 +1838,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>0.8344991888778055</v>
+        <v>0.83272738045913475</v>
       </c>
     </row>
     <row r="222">
@@ -1866,7 +1846,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>0.86437356395918741</v>
+        <v>0.86302911439556307</v>
       </c>
     </row>
     <row r="223">
@@ -1874,7 +1854,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>0.8841349151261213</v>
+        <v>0.88311397810267189</v>
       </c>
     </row>
     <row r="224">
@@ -1882,7 +1862,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0.87445238782438239</v>
+        <v>0.87348373557016779</v>
       </c>
     </row>
     <row r="225">
@@ -1890,7 +1870,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>-0.8022159596465871</v>
+        <v>-0.80321857866399504</v>
       </c>
     </row>
     <row r="226">
@@ -1898,7 +1878,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.84914925851512035</v>
+        <v>0.84769668772146878</v>
       </c>
     </row>
     <row r="227">
@@ -1906,7 +1886,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>-0.1292008124738073</v>
+        <v>-0.13060912785630824</v>
       </c>
     </row>
     <row r="228">
@@ -1914,7 +1894,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0.47330764877491588</v>
+        <v>0.4715112138719561</v>
       </c>
     </row>
     <row r="229">
@@ -1922,7 +1902,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>-0.55700121801760205</v>
+        <v>-0.55813764228904739</v>
       </c>
     </row>
     <row r="230">
@@ -1930,7 +1910,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>0.81640187114007867</v>
+        <v>0.81466559615257006</v>
       </c>
     </row>
     <row r="231">
@@ -1938,7 +1918,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>-0.33216136219275766</v>
+        <v>-0.333401703962101</v>
       </c>
     </row>
     <row r="232">
@@ -1946,7 +1926,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>0.84608937350477953</v>
+        <v>0.84472001010045006</v>
       </c>
     </row>
     <row r="233">
@@ -1954,7 +1934,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>0.82091702452900983</v>
+        <v>0.81962216647456332</v>
       </c>
     </row>
     <row r="234">
@@ -1962,7 +1942,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>-0.44775336272676752</v>
+        <v>-0.44893707220949036</v>
       </c>
     </row>
     <row r="235">
@@ -1970,7 +1950,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>0.50131835169905936</v>
+        <v>0.4995133420185307</v>
       </c>
     </row>
     <row r="236">
@@ -1978,7 +1958,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>0.85635767530210194</v>
+        <v>0.85442087541301448</v>
       </c>
     </row>
     <row r="237">
@@ -1986,7 +1966,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>0.73642166143418952</v>
+        <v>0.73474689360112988</v>
       </c>
     </row>
     <row r="238">
@@ -1994,7 +1974,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>-0.25100097943758959</v>
+        <v>-0.25230061715313123</v>
       </c>
     </row>
     <row r="239">
@@ -2002,7 +1982,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>0.705953292924552</v>
+        <v>0.70419750553729188</v>
       </c>
     </row>
     <row r="240">
@@ -2010,7 +1990,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>0.82244548246812754</v>
+        <v>0.82103574105463473</v>
       </c>
     </row>
     <row r="241">
@@ -2018,7 +1998,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.6092804846575236</v>
+        <v>0.60734534924783756</v>
       </c>
     </row>
     <row r="242">
@@ -2026,7 +2006,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>0.22586422998294622</v>
+        <v>0.2242603867398745</v>
       </c>
     </row>
     <row r="243">
@@ -2034,7 +2014,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0.80145226654735113</v>
+        <v>0.79974886169255144</v>
       </c>
     </row>
     <row r="244">
@@ -2042,7 +2022,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0.63631484058572463</v>
+        <v>0.63447194932284934</v>
       </c>
     </row>
     <row r="245">
@@ -2050,7 +2030,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>0.75589057597554499</v>
+        <v>0.75424253583363088</v>
       </c>
     </row>
     <row r="246">
@@ -2058,7 +2038,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0.17294186484818644</v>
+        <v>0.17137944814204603</v>
       </c>
     </row>
     <row r="247">
@@ -2066,7 +2046,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>0.50365626504618066</v>
+        <v>0.50186038270366751</v>
       </c>
     </row>
     <row r="248">
@@ -2074,7 +2054,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>0.72243806586110004</v>
+        <v>0.72042702423748117</v>
       </c>
     </row>
     <row r="249">
@@ -2082,7 +2062,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>0.70017751351166169</v>
+        <v>0.6983320378007164</v>
       </c>
     </row>
     <row r="250">
@@ -2090,7 +2070,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>0.5649150075950089</v>
+        <v>0.56299498413897242</v>
       </c>
     </row>
     <row r="251">
@@ -2098,7 +2078,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>0.53418126722187631</v>
+        <v>0.53228004645486315</v>
       </c>
     </row>
   </sheetData>
